--- a/sample_email.xlsx
+++ b/sample_email.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leilei/Downloads/MIDS/703 NLP/Final Project/Final Project/NLP_finalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD49AAD2-497C-724A-A09D-ED3B7EAD79D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC5FE43-5BD8-2A4A-A3BC-F1C2A5645B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17920" yWindow="500" windowWidth="17920" windowHeight="20540" xr2:uid="{0B6A1600-E696-044A-A1F6-C462FE918CA3}"/>
   </bookViews>
@@ -1276,278 +1276,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B08C973-8BB9-CA4C-AB0B-FC85B9C1B4A9}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="404" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" ht="255" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" ht="340" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" ht="272" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" ht="340" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="340" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" ht="340" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="221" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="221" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="153" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="204" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="170" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="272" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="272" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="153" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="356" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="356" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="170" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="221" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="221" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="204" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
         <v>1</v>
       </c>
     </row>
